--- a/data/trans_orig/Q4501_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q4501_R-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>120448</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>99610</v>
+        <v>102678</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>142236</v>
+        <v>142257</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1168458209490617</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09663123011070511</v>
+        <v>0.09960787470432951</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1379823823622133</v>
+        <v>0.1380024586812207</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>294</v>
@@ -764,19 +764,19 @@
         <v>301707</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>271782</v>
+        <v>272103</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>333455</v>
+        <v>333986</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.22957938454909</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2068086811542607</v>
+        <v>0.2070529449227774</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2537376502371291</v>
+        <v>0.2541416066802875</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>413</v>
@@ -785,19 +785,19 @@
         <v>422155</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>384785</v>
+        <v>384951</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>461647</v>
+        <v>461780</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1800233924870654</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1640874249959796</v>
+        <v>0.164158416423968</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1968645912366069</v>
+        <v>0.1969210299205837</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>73823</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>59752</v>
+        <v>58970</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>91209</v>
+        <v>89994</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07161561623952788</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05796476742696437</v>
+        <v>0.05720688543980336</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08848133261030222</v>
+        <v>0.08730262270375598</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>205</v>
@@ -835,19 +835,19 @@
         <v>207361</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>182585</v>
+        <v>186046</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>235555</v>
+        <v>234673</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1577879492005053</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.138935338361399</v>
+        <v>0.1415688781802337</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1792419239782726</v>
+        <v>0.1785711039138757</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>281</v>
@@ -856,19 +856,19 @@
         <v>281184</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>253477</v>
+        <v>250808</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>320772</v>
+        <v>311165</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1199078777132657</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1080926284933855</v>
+        <v>0.1069542973717246</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1367898226360123</v>
+        <v>0.1326930815231349</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>153969</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>132631</v>
+        <v>131888</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>178704</v>
+        <v>176999</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1493644779592856</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1286645501646055</v>
+        <v>0.1279441131178994</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1733602861055729</v>
+        <v>0.1717056508300082</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>193</v>
@@ -906,19 +906,19 @@
         <v>191715</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>167168</v>
+        <v>169467</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>219388</v>
+        <v>215982</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1458823415227647</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1272040566248915</v>
+        <v>0.1289536916120783</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1669399335467291</v>
+        <v>0.164348567649388</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>349</v>
@@ -927,19 +927,19 @@
         <v>345684</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>315065</v>
+        <v>312898</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>383973</v>
+        <v>379989</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1474130367309757</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1343559026408682</v>
+        <v>0.1334319398142638</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1637411109769228</v>
+        <v>0.1620421066088885</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>134805</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>114100</v>
+        <v>116194</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>158963</v>
+        <v>158740</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1307732922869523</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1106879696996576</v>
+        <v>0.112719027379554</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1542096329962656</v>
+        <v>0.1539926963624197</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>121</v>
@@ -977,19 +977,19 @@
         <v>122834</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>104801</v>
+        <v>105144</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>146216</v>
+        <v>145044</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0934686431075355</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07974643699638488</v>
+        <v>0.08000735511452098</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1112610305634402</v>
+        <v>0.110368784343185</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>255</v>
@@ -998,19 +998,19 @@
         <v>257639</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>226243</v>
+        <v>229513</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>287547</v>
+        <v>289481</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1098672101320887</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0964788492121692</v>
+        <v>0.09787333048440928</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1226211293942608</v>
+        <v>0.1234461228220383</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>547782</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>518311</v>
+        <v>516579</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>579812</v>
+        <v>578241</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5314007925651726</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5028109011991579</v>
+        <v>0.5011310177300509</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5624724340388143</v>
+        <v>0.5609486904844763</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>477</v>
@@ -1048,19 +1048,19 @@
         <v>490557</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>458311</v>
+        <v>458849</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>528868</v>
+        <v>526305</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3732816816201045</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3487444491727349</v>
+        <v>0.3491542328182584</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4024340802627322</v>
+        <v>0.4004840096454429</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1029</v>
@@ -1069,19 +1069,19 @@
         <v>1038339</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>994813</v>
+        <v>990693</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1087442</v>
+        <v>1087101</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4427884829366044</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4242273403048382</v>
+        <v>0.4224702552971818</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4637278899548122</v>
+        <v>0.4635824943977439</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>208453</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>182182</v>
+        <v>180865</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>238581</v>
+        <v>235803</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1232351579097606</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1077043534017957</v>
+        <v>0.1069252066697298</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1410467594414742</v>
+        <v>0.1394041801114487</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>461</v>
@@ -1194,19 +1194,19 @@
         <v>472881</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>437405</v>
+        <v>438876</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>508616</v>
+        <v>510196</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2984883164620421</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2760952904379186</v>
+        <v>0.2770234909450572</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3210447689398048</v>
+        <v>0.3220418294491178</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>656</v>
@@ -1215,19 +1215,19 @@
         <v>681334</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>634073</v>
+        <v>632428</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>728831</v>
+        <v>730152</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2079927780230905</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1935654037895874</v>
+        <v>0.1930630875200434</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.222492443386278</v>
+        <v>0.2228955954540804</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>226083</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>198828</v>
+        <v>200079</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>255255</v>
+        <v>254658</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1336577103059725</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1175448141727381</v>
+        <v>0.1182844232340698</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1509042176334726</v>
+        <v>0.1505512419496379</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>357</v>
@@ -1265,19 +1265,19 @@
         <v>362706</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>332434</v>
+        <v>328042</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>396131</v>
+        <v>396410</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2289443595540081</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2098362998026019</v>
+        <v>0.2070642014451041</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2500428816882416</v>
+        <v>0.2502190282828472</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>582</v>
@@ -1286,19 +1286,19 @@
         <v>588789</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>543042</v>
+        <v>547480</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>634907</v>
+        <v>633309</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.179741157163952</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.165776006763492</v>
+        <v>0.1671309269110308</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1938199461795178</v>
+        <v>0.1933321481438805</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>449773</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>414083</v>
+        <v>413617</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>487229</v>
+        <v>487781</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2659011448328323</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2448017651053615</v>
+        <v>0.2445262928684749</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2880444455297804</v>
+        <v>0.2883708241783831</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>395</v>
@@ -1336,19 +1336,19 @@
         <v>402955</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>370403</v>
+        <v>370156</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>436670</v>
+        <v>439950</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2543500096866382</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2338026004707768</v>
+        <v>0.2336470299573072</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2756313566521041</v>
+        <v>0.2777016711545391</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>838</v>
@@ -1357,19 +1357,19 @@
         <v>852728</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>803937</v>
+        <v>802933</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>902127</v>
+        <v>907260</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2603146736234886</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2454200852202408</v>
+        <v>0.2451136845129949</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2753949263386894</v>
+        <v>0.2769618069959972</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>276426</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>249389</v>
+        <v>249477</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>309674</v>
+        <v>307161</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1634203132235488</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1474359186895946</v>
+        <v>0.1474883748771637</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1830757899056448</v>
+        <v>0.1815906343311425</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>112</v>
@@ -1407,19 +1407,19 @@
         <v>115693</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>96191</v>
+        <v>96347</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>138940</v>
+        <v>136963</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07302668355283179</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06071683561596514</v>
+        <v>0.06081558257061379</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08770082047296737</v>
+        <v>0.08645254251469428</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>382</v>
@@ -1428,19 +1428,19 @@
         <v>392119</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>355732</v>
+        <v>356136</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>433233</v>
+        <v>434514</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1197032756101578</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1085952691820973</v>
+        <v>0.1087186669145181</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1322542869522341</v>
+        <v>0.1326452328433419</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>530770</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>493281</v>
+        <v>493645</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>567078</v>
+        <v>572570</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3137856737278858</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2916225602644281</v>
+        <v>0.2918375049218274</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3352508224683661</v>
+        <v>0.3384972664207427</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>226</v>
@@ -1478,19 +1478,19 @@
         <v>230019</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>201589</v>
+        <v>202733</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>260115</v>
+        <v>256973</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1451906307444798</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1272456277196422</v>
+        <v>0.1279672251558979</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1641879164744822</v>
+        <v>0.1622043152277589</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>740</v>
@@ -1499,19 +1499,19 @@
         <v>760789</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>709509</v>
+        <v>710328</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>811609</v>
+        <v>808564</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2322481155793109</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2165938048616568</v>
+        <v>0.2168438086208642</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2477622525528977</v>
+        <v>0.2468326221824012</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>112352</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>95612</v>
+        <v>94076</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>131410</v>
+        <v>132087</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2037542805606528</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1733968147970117</v>
+        <v>0.1706102936510645</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2383178985694079</v>
+        <v>0.2395448088904931</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>149</v>
@@ -1624,19 +1624,19 @@
         <v>158787</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>136838</v>
+        <v>138546</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>179374</v>
+        <v>181741</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.333298674948226</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2872259067312752</v>
+        <v>0.2908118337086307</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3765092755557005</v>
+        <v>0.3814783085839966</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>258</v>
@@ -1645,19 +1645,19 @@
         <v>271139</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>241788</v>
+        <v>243571</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>301654</v>
+        <v>300683</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2638002833924837</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2352431202229212</v>
+        <v>0.236977818641315</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2934891909732597</v>
+        <v>0.2925443497507104</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>128249</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>108585</v>
+        <v>109692</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>150643</v>
+        <v>148788</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2325846461065249</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1969238187340876</v>
+        <v>0.1989311180449851</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2731972011507912</v>
+        <v>0.2698322053254514</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>112</v>
@@ -1695,19 +1695,19 @@
         <v>117285</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>98596</v>
+        <v>99145</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>137015</v>
+        <v>139068</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2461831027007587</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2069543005318152</v>
+        <v>0.2081082894785492</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2875979189086744</v>
+        <v>0.2919080192064011</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>232</v>
@@ -1716,19 +1716,19 @@
         <v>245534</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>219709</v>
+        <v>219138</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>274417</v>
+        <v>274552</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2388877591592053</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2137622890241558</v>
+        <v>0.213206584372794</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2669891913719568</v>
+        <v>0.2671202625378672</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>160387</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>138888</v>
+        <v>140635</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>182678</v>
+        <v>184538</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2908681145196371</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2518782576281225</v>
+        <v>0.2550476541933238</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.331293152607099</v>
+        <v>0.3346662936550479</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>126</v>
@@ -1766,19 +1766,19 @@
         <v>131706</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>114294</v>
+        <v>111343</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>152527</v>
+        <v>152231</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2764529939847441</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2399049534712852</v>
+        <v>0.2337112106671029</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3201572033368574</v>
+        <v>0.3195365821448072</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>284</v>
@@ -1787,19 +1787,19 @@
         <v>292093</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>263463</v>
+        <v>264642</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>320901</v>
+        <v>321759</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2841864640124778</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2563316147432785</v>
+        <v>0.2574786880686364</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3122155755093887</v>
+        <v>0.3130503153847578</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>66372</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>51167</v>
+        <v>50535</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>85491</v>
+        <v>81812</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.120367625135107</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09279357412818963</v>
+        <v>0.0916467709862461</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1550407217559111</v>
+        <v>0.148369196467105</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>31</v>
@@ -1837,19 +1837,19 @@
         <v>32570</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22874</v>
+        <v>21493</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>45259</v>
+        <v>44618</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.068365746033754</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04801223944574266</v>
+        <v>0.04511431324355829</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09499929207074893</v>
+        <v>0.09365329213817027</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>91</v>
@@ -1858,19 +1858,19 @@
         <v>98942</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>79681</v>
+        <v>80579</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>120504</v>
+        <v>122301</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09626388066555928</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07752409346599363</v>
+        <v>0.07839824801920819</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1172418359930788</v>
+        <v>0.118990212679198</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>84049</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>67113</v>
+        <v>68202</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>103455</v>
+        <v>102847</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1524253336780783</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1217125751267795</v>
+        <v>0.1236872117744818</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1876203654640693</v>
+        <v>0.1865172581551999</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>34</v>
@@ -1908,19 +1908,19 @@
         <v>36064</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>25472</v>
+        <v>25274</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>49409</v>
+        <v>49817</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07569948233251726</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05346645526679562</v>
+        <v>0.05304987203464944</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1037106893379729</v>
+        <v>0.104567696318767</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>114</v>
@@ -1929,19 +1929,19 @@
         <v>120113</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>99105</v>
+        <v>100513</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>141834</v>
+        <v>142276</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1168616127702739</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09642296793309053</v>
+        <v>0.09779193926577651</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1379949602581856</v>
+        <v>0.1384247776532336</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>441252</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>402063</v>
+        <v>402969</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>482514</v>
+        <v>483019</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1347854298757404</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.122814537624017</v>
+        <v>0.1230914941697657</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1473892385312791</v>
+        <v>0.1475434802217786</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>904</v>
@@ -2054,19 +2054,19 @@
         <v>933376</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>880909</v>
+        <v>879813</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>986839</v>
+        <v>987025</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2765689859375337</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2610224615783016</v>
+        <v>0.2606979348696017</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.292410665866998</v>
+        <v>0.2924660232790543</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1327</v>
@@ -2075,19 +2075,19 @@
         <v>1374628</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1306325</v>
+        <v>1308030</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1442926</v>
+        <v>1448759</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2067551954208427</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1964819053778004</v>
+        <v>0.1967383398652488</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2170277895763091</v>
+        <v>0.2179050327323319</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>428155</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>388365</v>
+        <v>392929</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>465421</v>
+        <v>473342</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1307846747666707</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1186305430351367</v>
+        <v>0.1200246417816211</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1421678774914401</v>
+        <v>0.1445875306285639</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>674</v>
@@ -2125,19 +2125,19 @@
         <v>687351</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>638155</v>
+        <v>642656</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>737060</v>
+        <v>732417</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2036693432261636</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1890919737492117</v>
+        <v>0.1904255900345286</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2183987452696293</v>
+        <v>0.2170228604967857</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1095</v>
@@ -2146,19 +2146,19 @@
         <v>1115506</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1047595</v>
+        <v>1053573</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1178243</v>
+        <v>1175058</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1677811547997719</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1575667278495327</v>
+        <v>0.1584658785339285</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1772172790329828</v>
+        <v>0.1767383026726114</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>764129</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>715858</v>
+        <v>714527</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>814644</v>
+        <v>808809</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2334116447628209</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2186666565416305</v>
+        <v>0.2182603419101291</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2488420177591909</v>
+        <v>0.2470596169708326</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>714</v>
@@ -2196,19 +2196,19 @@
         <v>726375</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>675924</v>
+        <v>680868</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>774383</v>
+        <v>776029</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2152325330505266</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2002832713690728</v>
+        <v>0.2017484883838951</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2294578568137084</v>
+        <v>0.2299456591309964</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1471</v>
@@ -2217,19 +2217,19 @@
         <v>1490504</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1421192</v>
+        <v>1423354</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1553858</v>
+        <v>1556709</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.224183872205178</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2137588507175562</v>
+        <v>0.2140839292018948</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2337127823763131</v>
+        <v>0.2341416651769977</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>477602</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>438872</v>
+        <v>436029</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>518640</v>
+        <v>523408</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1458889779268993</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1340582528161397</v>
+        <v>0.1331900325943065</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1584244939704954</v>
+        <v>0.1598809292820162</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>264</v>
@@ -2267,19 +2267,19 @@
         <v>271097</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>239293</v>
+        <v>241002</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>302661</v>
+        <v>304177</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08032888400982449</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0709049555837917</v>
+        <v>0.07141150488464701</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08968167854655568</v>
+        <v>0.09013085409592826</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>728</v>
@@ -2288,19 +2288,19 @@
         <v>748700</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>701033</v>
+        <v>695322</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>805085</v>
+        <v>799209</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1126104742739766</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1054410017286983</v>
+        <v>0.1045821372951423</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.12109133560865</v>
+        <v>0.1202074876852713</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>1162601</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1104631</v>
+        <v>1105699</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1216065</v>
+        <v>1218859</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3551292726678688</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3374217437492606</v>
+        <v>0.3377481501460398</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3714606004828344</v>
+        <v>0.3723139638136153</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>737</v>
@@ -2338,19 +2338,19 @@
         <v>756640</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>708823</v>
+        <v>712294</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>803272</v>
+        <v>807749</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2242002537759516</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2100317034201133</v>
+        <v>0.2110602321838844</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2380179994286388</v>
+        <v>0.2393446675083711</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1883</v>
@@ -2359,19 +2359,19 @@
         <v>1919240</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1848554</v>
+        <v>1841215</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1990609</v>
+        <v>1992695</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2886693033002309</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2780374811500056</v>
+        <v>0.2769336691266092</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2994037100927935</v>
+        <v>0.2997175016305417</v>
       </c>
     </row>
     <row r="27">
@@ -2702,19 +2702,19 @@
         <v>60690</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>46960</v>
+        <v>47607</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>77444</v>
+        <v>77237</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06233068037522714</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04822959033274026</v>
+        <v>0.04889426634014646</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07953734105589526</v>
+        <v>0.07932458311088751</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>224</v>
@@ -2723,19 +2723,19 @@
         <v>238295</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>210532</v>
+        <v>210658</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>269739</v>
+        <v>270147</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1785613935611037</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1577578759627203</v>
+        <v>0.1578522562827035</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.202123209766113</v>
+        <v>0.2024293266698496</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>283</v>
@@ -2744,19 +2744,19 @@
         <v>298985</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>265870</v>
+        <v>267220</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>330765</v>
+        <v>334043</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1295313997638601</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1151846407616777</v>
+        <v>0.1157695260921932</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1432995105614803</v>
+        <v>0.1447197029804632</v>
       </c>
     </row>
     <row r="5">
@@ -2773,19 +2773,19 @@
         <v>48471</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>35966</v>
+        <v>36351</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>63671</v>
+        <v>64386</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04978156658813959</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03693826120212523</v>
+        <v>0.03733328955758778</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06539177316728022</v>
+        <v>0.06612668815168614</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>134</v>
@@ -2794,19 +2794,19 @@
         <v>140788</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>119765</v>
+        <v>119050</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>166577</v>
+        <v>163698</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1054965721747248</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08974345246134477</v>
+        <v>0.08920760964979418</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1248210298899326</v>
+        <v>0.1226638871389943</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>180</v>
@@ -2815,19 +2815,19 @@
         <v>189259</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>161595</v>
+        <v>161956</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>216423</v>
+        <v>220579</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08199412343765895</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0700090058916413</v>
+        <v>0.07016557349126488</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09376252532236208</v>
+        <v>0.09556287741004031</v>
       </c>
     </row>
     <row r="6">
@@ -2844,19 +2844,19 @@
         <v>134801</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>114355</v>
+        <v>112660</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>157178</v>
+        <v>156446</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1384446615130203</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1174466686988647</v>
+        <v>0.1157056686379279</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1614272828754056</v>
+        <v>0.160675551308498</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>265</v>
@@ -2865,19 +2865,19 @@
         <v>281587</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>251231</v>
+        <v>250689</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>309256</v>
+        <v>311984</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2110012336209735</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1882546467931487</v>
+        <v>0.1878489298786019</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2317343850831936</v>
+        <v>0.2337785424601268</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>393</v>
@@ -2886,19 +2886,19 @@
         <v>416387</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>382794</v>
+        <v>379039</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>454435</v>
+        <v>458016</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1803944500704577</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1658404922825152</v>
+        <v>0.1642138363789659</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1968783344187287</v>
+        <v>0.198429757120547</v>
       </c>
     </row>
     <row r="7">
@@ -2915,19 +2915,19 @@
         <v>135177</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>113471</v>
+        <v>111933</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>160274</v>
+        <v>159443</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1388311430309589</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1165384485728971</v>
+        <v>0.1149587620731627</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1646064469165823</v>
+        <v>0.163752857537592</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>133</v>
@@ -2936,19 +2936,19 @@
         <v>142078</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>120553</v>
+        <v>121196</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>166150</v>
+        <v>166174</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1064628457223336</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09033358788648163</v>
+        <v>0.09081598844805473</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.124500797674776</v>
+        <v>0.124518811973344</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>257</v>
@@ -2957,19 +2957,19 @@
         <v>277254</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>246143</v>
+        <v>246179</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>309780</v>
+        <v>314088</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1201168737564839</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.106638391861126</v>
+        <v>0.1066540919469311</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1342083655081286</v>
+        <v>0.136074681881907</v>
       </c>
     </row>
     <row r="8">
@@ -2986,19 +2986,19 @@
         <v>594539</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>561536</v>
+        <v>562107</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>627103</v>
+        <v>625210</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6106119484926541</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5767158232457841</v>
+        <v>0.5773032374293671</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6440557276642093</v>
+        <v>0.642111973809428</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>488</v>
@@ -3007,19 +3007,19 @@
         <v>531780</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>496263</v>
+        <v>495881</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>568634</v>
+        <v>569688</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3984779549208644</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3718643427493853</v>
+        <v>0.3715783517042636</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4260944065604994</v>
+        <v>0.4268834963012423</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1038</v>
@@ -3028,19 +3028,19 @@
         <v>1126319</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1076866</v>
+        <v>1078509</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1175628</v>
+        <v>1183789</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4879631529715394</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4665386180473083</v>
+        <v>0.4672505106751836</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5093256526037316</v>
+        <v>0.5128614542193185</v>
       </c>
     </row>
     <row r="9">
@@ -3132,19 +3132,19 @@
         <v>236440</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>208637</v>
+        <v>206122</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>269957</v>
+        <v>269175</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.120622162202901</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1064378862998724</v>
+        <v>0.1051550546919585</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.137720945852906</v>
+        <v>0.137321998926311</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>378</v>
@@ -3153,19 +3153,19 @@
         <v>414891</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>380816</v>
+        <v>379625</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>454138</v>
+        <v>450138</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2366059624016143</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2171731403271223</v>
+        <v>0.2164942915510192</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2589874173907431</v>
+        <v>0.2567065625009896</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>602</v>
@@ -3174,19 +3174,19 @@
         <v>651332</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>602290</v>
+        <v>602052</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>703438</v>
+        <v>698668</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1753869016013788</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1621813226413676</v>
+        <v>0.1621170735538942</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1894178464647159</v>
+        <v>0.1881333331522429</v>
       </c>
     </row>
     <row r="11">
@@ -3203,19 +3203,19 @@
         <v>240884</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>212020</v>
+        <v>209743</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>275422</v>
+        <v>270507</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1228890861826884</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1081640769241412</v>
+        <v>0.1070022567479698</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1405089463253622</v>
+        <v>0.1380016928477319</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>331</v>
@@ -3224,19 +3224,19 @@
         <v>353366</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>320834</v>
+        <v>322032</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>388559</v>
+        <v>387749</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2015192610875206</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1829663419896889</v>
+        <v>0.1836495882917496</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2215888119294896</v>
+        <v>0.2211273559526613</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>556</v>
@@ -3245,19 +3245,19 @@
         <v>594250</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>549061</v>
+        <v>548907</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>640958</v>
+        <v>640799</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1600163490430377</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1478480596205106</v>
+        <v>0.1478067256495675</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1725934648631244</v>
+        <v>0.1725507281667925</v>
       </c>
     </row>
     <row r="12">
@@ -3274,19 +3274,19 @@
         <v>468940</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>430320</v>
+        <v>431448</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>507127</v>
+        <v>506470</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2392339416548692</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2195316885692992</v>
+        <v>0.2201072731375766</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.258715616959364</v>
+        <v>0.2583805455292313</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>442</v>
@@ -3295,19 +3295,19 @@
         <v>468115</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>430679</v>
+        <v>427569</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>508371</v>
+        <v>505205</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2669587987331428</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2456092034358202</v>
+        <v>0.2438359946387954</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.289915659845854</v>
+        <v>0.2881103299850903</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>891</v>
@@ -3316,19 +3316,19 @@
         <v>937055</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>883682</v>
+        <v>885408</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>998036</v>
+        <v>991338</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2523249472103893</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2379530655148624</v>
+        <v>0.2384178299871864</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2687454113409926</v>
+        <v>0.2669418613624703</v>
       </c>
     </row>
     <row r="13">
@@ -3345,19 +3345,19 @@
         <v>259033</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>230277</v>
+        <v>228680</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>290224</v>
+        <v>290590</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1321479199817647</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1174777438798081</v>
+        <v>0.1166633219508097</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1480606145145147</v>
+        <v>0.1482473762283498</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>119</v>
@@ -3366,19 +3366,19 @@
         <v>131053</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>108509</v>
+        <v>106849</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>156222</v>
+        <v>155501</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07473769117547063</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06188102759377369</v>
+        <v>0.0609342556639137</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08909086000608039</v>
+        <v>0.08867961868103671</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>367</v>
@@ -3387,19 +3387,19 @@
         <v>390086</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>351796</v>
+        <v>351364</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>430239</v>
+        <v>430262</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1050402013693635</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0947297287879936</v>
+        <v>0.09461346076910437</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1158522813484661</v>
+        <v>0.1158586424331543</v>
       </c>
     </row>
     <row r="14">
@@ -3416,19 +3416,19 @@
         <v>754876</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>706429</v>
+        <v>713152</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>797809</v>
+        <v>802415</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3851068899777768</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3603912843443102</v>
+        <v>0.3638210508094151</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.407009652012592</v>
+        <v>0.4093592544927858</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>361</v>
@@ -3437,19 +3437,19 @@
         <v>386085</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>352826</v>
+        <v>352871</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>422725</v>
+        <v>423085</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2201782866022517</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2012113137383951</v>
+        <v>0.2012366856208224</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2410731423140155</v>
+        <v>0.2412786316610676</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1067</v>
@@ -3458,19 +3458,19 @@
         <v>1140961</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1087685</v>
+        <v>1085656</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1200043</v>
+        <v>1204139</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3072316007758306</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2928855952856597</v>
+        <v>0.2923394874621744</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3231408139526319</v>
+        <v>0.3242436853833477</v>
       </c>
     </row>
     <row r="15">
@@ -3562,19 +3562,19 @@
         <v>68902</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>53469</v>
+        <v>52806</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>86981</v>
+        <v>86747</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1431927953001353</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1111211395211505</v>
+        <v>0.1097435060338161</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1807659573288954</v>
+        <v>0.1802790922653645</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>128</v>
@@ -3583,19 +3583,19 @@
         <v>142290</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>122258</v>
+        <v>121742</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>163736</v>
+        <v>163702</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3115891559491856</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2677227896293329</v>
+        <v>0.2665919351118745</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3585521823326434</v>
+        <v>0.3584760473068861</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>190</v>
@@ -3604,19 +3604,19 @@
         <v>211192</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>185795</v>
+        <v>184034</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>237956</v>
+        <v>240596</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2251894699569795</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1981092695055732</v>
+        <v>0.196231814411454</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2537277087622373</v>
+        <v>0.2565424816233093</v>
       </c>
     </row>
     <row r="17">
@@ -3633,19 +3633,19 @@
         <v>89650</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>71775</v>
+        <v>72691</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>109416</v>
+        <v>110392</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1863132802513973</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1491634737516687</v>
+        <v>0.1510672750602094</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2273908483243031</v>
+        <v>0.2294198115988521</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>106</v>
@@ -3654,19 +3654,19 @@
         <v>119367</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>100892</v>
+        <v>99251</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>141412</v>
+        <v>138822</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2613909883209732</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2209338077884314</v>
+        <v>0.2173400569661622</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3096655455959397</v>
+        <v>0.3039946958646235</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>186</v>
@@ -3675,19 +3675,19 @@
         <v>209017</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>182706</v>
+        <v>183916</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>237204</v>
+        <v>238076</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2228706166382111</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.194815293874143</v>
+        <v>0.1961054683496517</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2529260304301877</v>
+        <v>0.2538552577056709</v>
       </c>
     </row>
     <row r="18">
@@ -3704,19 +3704,19 @@
         <v>164683</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>142703</v>
+        <v>141346</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>187822</v>
+        <v>187362</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.342247688638868</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2965676459660865</v>
+        <v>0.2937491271427521</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3903362817143627</v>
+        <v>0.3893792476133999</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>85</v>
@@ -3725,19 +3725,19 @@
         <v>93988</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>77475</v>
+        <v>75941</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>112521</v>
+        <v>112722</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.205815638981408</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1696553923647735</v>
+        <v>0.1662964312106005</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2463999174678895</v>
+        <v>0.2468400714319231</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>236</v>
@@ -3746,19 +3746,19 @@
         <v>258671</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>231225</v>
+        <v>230883</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>286796</v>
+        <v>288745</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2758152886427446</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2465498276542568</v>
+        <v>0.2461859742597627</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3058041344504855</v>
+        <v>0.3078825685613819</v>
       </c>
     </row>
     <row r="19">
@@ -3775,19 +3775,19 @@
         <v>46010</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>34447</v>
+        <v>34598</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>61505</v>
+        <v>61268</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09561892912702695</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07158839370919692</v>
+        <v>0.0719024444992072</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1278215554741108</v>
+        <v>0.127327632708763</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>33</v>
@@ -3796,19 +3796,19 @@
         <v>36723</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25512</v>
+        <v>26543</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>50143</v>
+        <v>50257</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08041727899649827</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05586643666261862</v>
+        <v>0.05812517727098072</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1098039275019018</v>
+        <v>0.1100528276363718</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>76</v>
@@ -3817,19 +3817,19 @@
         <v>82733</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>66617</v>
+        <v>66133</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>103984</v>
+        <v>103009</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08821684065435564</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07103186368606726</v>
+        <v>0.07051631163522182</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1108754230978327</v>
+        <v>0.1098360014187501</v>
       </c>
     </row>
     <row r="20">
@@ -3846,19 +3846,19 @@
         <v>111936</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>93996</v>
+        <v>91568</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>131892</v>
+        <v>131153</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2326273066825725</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1953445492139598</v>
+        <v>0.1902979867723989</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2740996781394359</v>
+        <v>0.2725638609575001</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>59</v>
@@ -3867,19 +3867,19 @@
         <v>64292</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>50163</v>
+        <v>48904</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>81834</v>
+        <v>80332</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1407869377519349</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1098466389869347</v>
+        <v>0.1070906769669072</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.179202203723906</v>
+        <v>0.1759130081070286</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>161</v>
@@ -3888,19 +3888,19 @@
         <v>176228</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>151662</v>
+        <v>151338</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>202752</v>
+        <v>203388</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1879077841077091</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1617139878305383</v>
+        <v>0.1613687253251647</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2161904485237472</v>
+        <v>0.2168678242589781</v>
       </c>
     </row>
     <row r="21">
@@ -3992,19 +3992,19 @@
         <v>366032</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>329609</v>
+        <v>329950</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>406142</v>
+        <v>403136</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1071825958547696</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09651702803609327</v>
+        <v>0.09661703147556751</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1189276114765588</v>
+        <v>0.1180476464782965</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>730</v>
@@ -4013,19 +4013,19 @@
         <v>795476</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>745902</v>
+        <v>745421</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>847733</v>
+        <v>849446</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2244130469017513</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2104275052136388</v>
+        <v>0.2102917023563931</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2391551609812503</v>
+        <v>0.2396385951576676</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1075</v>
@@ -4034,19 +4034,19 @@
         <v>1161509</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1098435</v>
+        <v>1101328</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1228563</v>
+        <v>1230382</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1668898821109314</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1578272974901344</v>
+        <v>0.1582429363275344</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1765245421879209</v>
+        <v>0.1767858254600253</v>
       </c>
     </row>
     <row r="23">
@@ -4063,19 +4063,19 @@
         <v>379006</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>343965</v>
+        <v>346156</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>424178</v>
+        <v>418442</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1109815496774169</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1007209073700542</v>
+        <v>0.1013623228982006</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1242090755692541</v>
+        <v>0.1225295176673761</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>571</v>
@@ -4084,19 +4084,19 @@
         <v>613521</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>570357</v>
+        <v>563914</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>668069</v>
+        <v>657833</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1730813472136201</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1609043048194174</v>
+        <v>0.159086632897315</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1884698230552775</v>
+        <v>0.1855822544437669</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>922</v>
@@ -4105,19 +4105,19 @@
         <v>992527</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>931706</v>
+        <v>935147</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1055968</v>
+        <v>1060518</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1426099393562882</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1338710541490859</v>
+        <v>0.1343653561042785</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1517254384195589</v>
+        <v>0.1523791691603692</v>
       </c>
     </row>
     <row r="24">
@@ -4134,19 +4134,19 @@
         <v>768424</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>720174</v>
+        <v>718605</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>819838</v>
+        <v>819756</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2250121209384347</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2108834190303426</v>
+        <v>0.2104239467508883</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2400673415600157</v>
+        <v>0.2400434723219285</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>792</v>
@@ -4155,19 +4155,19 @@
         <v>843690</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>791083</v>
+        <v>794282</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>896889</v>
+        <v>898100</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2380145866424682</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2231735683967395</v>
+        <v>0.2240760218332628</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2530228180383982</v>
+        <v>0.2533642513167421</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1520</v>
@@ -4176,19 +4176,19 @@
         <v>1612113</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1540765</v>
+        <v>1540318</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1682255</v>
+        <v>1688921</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2316344783113968</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2213828682570464</v>
+        <v>0.2213186531587474</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2417126753832889</v>
+        <v>0.2426705165311524</v>
       </c>
     </row>
     <row r="25">
@@ -4205,19 +4205,19 @@
         <v>440220</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>400397</v>
+        <v>400801</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>479774</v>
+        <v>479673</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1289064368174889</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1172453171332385</v>
+        <v>0.1173638774505897</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1404888188873344</v>
+        <v>0.140459388670769</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>285</v>
@@ -4226,19 +4226,19 @@
         <v>309854</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>273633</v>
+        <v>278468</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>344342</v>
+        <v>347916</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08741344053907711</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07719501863026504</v>
+        <v>0.07855897355418973</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09714290251126635</v>
+        <v>0.09815095848727884</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>700</v>
@@ -4247,19 +4247,19 @@
         <v>750074</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>697844</v>
+        <v>701732</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>803481</v>
+        <v>806736</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1077734105065339</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1002687740519954</v>
+        <v>0.1008274550060292</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1154470842762906</v>
+        <v>0.1159148190355645</v>
       </c>
     </row>
     <row r="26">
@@ -4276,19 +4276,19 @@
         <v>1461351</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1399090</v>
+        <v>1406438</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1522292</v>
+        <v>1523199</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4279172967118899</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4096857098821866</v>
+        <v>0.4118375150797994</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4457621781964968</v>
+        <v>0.4460276687555738</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>908</v>
@@ -4297,19 +4297,19 @@
         <v>982156</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>931600</v>
+        <v>930897</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1039572</v>
+        <v>1042687</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2770775787030834</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2628149273459543</v>
+        <v>0.2626166257737155</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2932751449675537</v>
+        <v>0.2941539586200231</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2266</v>
@@ -4318,19 +4318,19 @@
         <v>2443508</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2361247</v>
+        <v>2360059</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2516181</v>
+        <v>2528717</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3510922897148497</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3392727264494247</v>
+        <v>0.3391020667946367</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3615343056994419</v>
+        <v>0.3633355143469398</v>
       </c>
     </row>
     <row r="27">
@@ -4661,19 +4661,19 @@
         <v>36698</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>26134</v>
+        <v>27336</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>49150</v>
+        <v>49406</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04877998273723172</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03473825639118986</v>
+        <v>0.0363363378932196</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06533186933533408</v>
+        <v>0.06567203794302225</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>118</v>
@@ -4682,19 +4682,19 @@
         <v>131741</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>110162</v>
+        <v>110796</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>157364</v>
+        <v>156943</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1327701369336533</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1110227705202165</v>
+        <v>0.1116620767200616</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1585935505511508</v>
+        <v>0.1581689104466604</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>154</v>
@@ -4703,19 +4703,19 @@
         <v>168438</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>143567</v>
+        <v>145477</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>196201</v>
+        <v>193252</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09655091915145085</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.08229421656244175</v>
+        <v>0.08338902624702083</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1124646608255478</v>
+        <v>0.1107742230916402</v>
       </c>
     </row>
     <row r="5">
@@ -4732,19 +4732,19 @@
         <v>86951</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>69612</v>
+        <v>68342</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>104813</v>
+        <v>102486</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1155786797218162</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09253099240741963</v>
+        <v>0.0908432235084483</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1393220809739972</v>
+        <v>0.1362285246895728</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>186</v>
@@ -4753,19 +4753,19 @@
         <v>203121</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>176363</v>
+        <v>176070</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>231781</v>
+        <v>228028</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2047077823592866</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1777406798067703</v>
+        <v>0.1774457985479247</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2335920982351038</v>
+        <v>0.2298092211901739</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>271</v>
@@ -4774,19 +4774,19 @@
         <v>290071</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>259463</v>
+        <v>255320</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>324392</v>
+        <v>320854</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1662724870553955</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1487270827004806</v>
+        <v>0.1463523403320141</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1859454541546175</v>
+        <v>0.1839171355235623</v>
       </c>
     </row>
     <row r="6">
@@ -4803,19 +4803,19 @@
         <v>100612</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>82900</v>
+        <v>84576</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>120143</v>
+        <v>119578</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1337383055503108</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1101949189540232</v>
+        <v>0.1124217202031986</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1596988356210216</v>
+        <v>0.1589481619735582</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>157</v>
@@ -4824,19 +4824,19 @@
         <v>172451</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>148718</v>
+        <v>146935</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>199688</v>
+        <v>195962</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1737984913474199</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1498795362576695</v>
+        <v>0.1480832367830517</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2012482958462021</v>
+        <v>0.1974936560102953</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>261</v>
@@ -4845,19 +4845,19 @@
         <v>273063</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>243146</v>
+        <v>243250</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>305085</v>
+        <v>304261</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1565232689399486</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1393743297255353</v>
+        <v>0.1394340435910262</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1748785550659531</v>
+        <v>0.1744058158361591</v>
       </c>
     </row>
     <row r="7">
@@ -4874,19 +4874,19 @@
         <v>83087</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>67981</v>
+        <v>67185</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>101325</v>
+        <v>103980</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1104427790506296</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0903640294616085</v>
+        <v>0.08930469417168235</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1346859340124243</v>
+        <v>0.1382144540315646</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>57</v>
@@ -4895,19 +4895,19 @@
         <v>62194</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>48215</v>
+        <v>48612</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>82197</v>
+        <v>81239</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06268034177680694</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04859183108193612</v>
+        <v>0.04899191923432948</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08283915536071502</v>
+        <v>0.08187386411085469</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>140</v>
@@ -4916,19 +4916,19 @@
         <v>145281</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>122119</v>
+        <v>124694</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>169552</v>
+        <v>170590</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08327701925621404</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06999993289503711</v>
+        <v>0.07147583374248954</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09718904329188476</v>
+        <v>0.09778433596966052</v>
       </c>
     </row>
     <row r="8">
@@ -4945,19 +4945,19 @@
         <v>444960</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>417378</v>
+        <v>420606</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>472667</v>
+        <v>471258</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5914602529400117</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5547974268147495</v>
+        <v>0.5590887049434879</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6282901184466299</v>
+        <v>0.6264178034844767</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>372</v>
@@ -4966,19 +4966,19 @@
         <v>422740</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>387189</v>
+        <v>388502</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>455007</v>
+        <v>452824</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4260432475828332</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3902146510822456</v>
+        <v>0.3915374210103413</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4585621553290752</v>
+        <v>0.4563626674826959</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>824</v>
@@ -4987,19 +4987,19 @@
         <v>867700</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>827578</v>
+        <v>823407</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>915421</v>
+        <v>913409</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.497376305596991</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4743778485344375</v>
+        <v>0.4719869200567595</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5247301235413747</v>
+        <v>0.5235771910799938</v>
       </c>
     </row>
     <row r="9">
@@ -5091,19 +5091,19 @@
         <v>210820</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>182827</v>
+        <v>180186</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>239937</v>
+        <v>239508</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1019880346484816</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08844615407802654</v>
+        <v>0.08716838870606064</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1160739616374719</v>
+        <v>0.1158662696779048</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>340</v>
@@ -5112,19 +5112,19 @@
         <v>360483</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>325398</v>
+        <v>324562</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>394667</v>
+        <v>395791</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1818223034315271</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1641259907242863</v>
+        <v>0.1637043923246811</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1990642619299661</v>
+        <v>0.1996310339424625</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>533</v>
@@ -5133,19 +5133,19 @@
         <v>571303</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>524161</v>
+        <v>527433</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>612841</v>
+        <v>617899</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1410723421006702</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.129431604339821</v>
+        <v>0.130239510379775</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1513293445068851</v>
+        <v>0.1525784718147118</v>
       </c>
     </row>
     <row r="11">
@@ -5162,19 +5162,19 @@
         <v>481421</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>439888</v>
+        <v>442851</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>518555</v>
+        <v>520395</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2328960639639732</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2128038507843731</v>
+        <v>0.2142371014333234</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2508603346672361</v>
+        <v>0.2517505089014098</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>638</v>
@@ -5183,19 +5183,19 @@
         <v>652335</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>612590</v>
+        <v>609737</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>696014</v>
+        <v>692444</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3290282508389199</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3089814136826539</v>
+        <v>0.3075421762517599</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3510592805701349</v>
+        <v>0.3492586823175536</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1095</v>
@@ -5204,19 +5204,19 @@
         <v>1133756</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1073208</v>
+        <v>1078651</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1189089</v>
+        <v>1191336</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2799593114283203</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.265008244014617</v>
+        <v>0.2663521878353469</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.293622880322869</v>
+        <v>0.2941775591336553</v>
       </c>
     </row>
     <row r="12">
@@ -5233,19 +5233,19 @@
         <v>533863</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>496201</v>
+        <v>497850</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>577884</v>
+        <v>580606</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2582660855650173</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2400464950283475</v>
+        <v>0.2408439803621691</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2795620574644463</v>
+        <v>0.2808787034253874</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>435</v>
@@ -5254,19 +5254,19 @@
         <v>451058</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>414458</v>
+        <v>416860</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>489596</v>
+        <v>489540</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2275068004682268</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2090465118639029</v>
+        <v>0.2102581245519073</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2469450982796144</v>
+        <v>0.2469169004640223</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>944</v>
@@ -5275,19 +5275,19 @@
         <v>984921</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>931074</v>
+        <v>926768</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1041085</v>
+        <v>1036866</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2432073222787956</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2299108969299725</v>
+        <v>0.2288476608231839</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2570760389220517</v>
+        <v>0.2560343636547018</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>160882</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>138199</v>
+        <v>138379</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>186987</v>
+        <v>189759</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07782984545205705</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06685641004751719</v>
+        <v>0.06694336135025508</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09045828833363104</v>
+        <v>0.09179921971311429</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>111</v>
@@ -5325,19 +5325,19 @@
         <v>114158</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>94108</v>
+        <v>92907</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>137233</v>
+        <v>136020</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0575797377419793</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04746643579098365</v>
+        <v>0.04686111485312089</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06921803654845829</v>
+        <v>0.0686064690468665</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>262</v>
@@ -5346,19 +5346,19 @@
         <v>275041</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>246289</v>
+        <v>244996</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>311269</v>
+        <v>308338</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06791603966733246</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0608164153637164</v>
+        <v>0.06049703685627408</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07686200775679614</v>
+        <v>0.07613815908765284</v>
       </c>
     </row>
     <row r="14">
@@ -5375,19 +5375,19 @@
         <v>680119</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>638092</v>
+        <v>640298</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>722603</v>
+        <v>726184</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3290199703704708</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.308688480599818</v>
+        <v>0.3097557642102422</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3495723114295667</v>
+        <v>0.3513047606852335</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>379</v>
@@ -5396,19 +5396,19 @@
         <v>404578</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>368293</v>
+        <v>372642</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>443219</v>
+        <v>445577</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2040629075193469</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1857613454816317</v>
+        <v>0.1879552152739268</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2235528231678352</v>
+        <v>0.2247424653460429</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1012</v>
@@ -5417,19 +5417,19 @@
         <v>1084696</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1024970</v>
+        <v>1031237</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1140847</v>
+        <v>1145106</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2678449845248815</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2530967732889128</v>
+        <v>0.2546442234791587</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2817103169372295</v>
+        <v>0.2827619925639777</v>
       </c>
     </row>
     <row r="15">
@@ -5521,19 +5521,19 @@
         <v>97966</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>79697</v>
+        <v>80471</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>116142</v>
+        <v>117244</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1797715599914097</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1462467508141643</v>
+        <v>0.1476666350203648</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2131257506647423</v>
+        <v>0.2151464930240215</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>132</v>
@@ -5542,19 +5542,19 @@
         <v>137883</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>117873</v>
+        <v>118169</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>158902</v>
+        <v>161365</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2510888035678893</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2146495908756476</v>
+        <v>0.21518905987208</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.289364341577917</v>
+        <v>0.2938501586695101</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>218</v>
@@ -5563,19 +5563,19 @@
         <v>235849</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>209998</v>
+        <v>208870</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>264151</v>
+        <v>265238</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2155668321369861</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1919390893023254</v>
+        <v>0.1909077859021929</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2414350419453456</v>
+        <v>0.2424282160390535</v>
       </c>
     </row>
     <row r="17">
@@ -5592,19 +5592,19 @@
         <v>169705</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>149822</v>
+        <v>147646</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>195190</v>
+        <v>193550</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.31141460342238</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2749283053403338</v>
+        <v>0.2709365170852134</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3581808416371273</v>
+        <v>0.3551716713911143</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>164</v>
@@ -5613,19 +5613,19 @@
         <v>167020</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>145577</v>
+        <v>144621</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>192344</v>
+        <v>188389</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3041484184774638</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2650991829050615</v>
+        <v>0.2633589678395911</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3502635070423859</v>
+        <v>0.3430621000860914</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>322</v>
@@ -5634,19 +5634,19 @@
         <v>336725</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>306554</v>
+        <v>305897</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>368053</v>
+        <v>366920</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3077675882754128</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2801912642147302</v>
+        <v>0.2795905753150461</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3364015036119252</v>
+        <v>0.3353664218675173</v>
       </c>
     </row>
     <row r="18">
@@ -5663,19 +5663,19 @@
         <v>121416</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>102063</v>
+        <v>102904</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>143757</v>
+        <v>142429</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2228021370888113</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1872889706723457</v>
+        <v>0.1888321554381622</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2637995043706347</v>
+        <v>0.2613618077413416</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>107</v>
@@ -5684,19 +5684,19 @@
         <v>109821</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>92071</v>
+        <v>91324</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>131536</v>
+        <v>128954</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1999867158761687</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1676630753222841</v>
+        <v>0.1663042938994735</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2395302473466351</v>
+        <v>0.2348288822767228</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>221</v>
@@ -5705,19 +5705,19 @@
         <v>231236</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>203662</v>
+        <v>204176</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>259896</v>
+        <v>259202</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2113507100500377</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1861477669335727</v>
+        <v>0.1866176634356511</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2375461693042563</v>
+        <v>0.2369111838643807</v>
       </c>
     </row>
     <row r="19">
@@ -5734,19 +5734,19 @@
         <v>34138</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>23297</v>
+        <v>22827</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>48613</v>
+        <v>48868</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06264389368291218</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04275114693175379</v>
+        <v>0.04188877712479647</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08920685150878645</v>
+        <v>0.08967377353863212</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>26</v>
@@ -5755,19 +5755,19 @@
         <v>26576</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>17940</v>
+        <v>17339</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38300</v>
+        <v>37611</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04839629267640248</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03267001031169707</v>
+        <v>0.03157465052570854</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06974495334611838</v>
+        <v>0.06849051329561395</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>56</v>
@@ -5776,19 +5776,19 @@
         <v>60714</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>46918</v>
+        <v>46325</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>78919</v>
+        <v>79218</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05549279347384857</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04288278429281583</v>
+        <v>0.04234109234104741</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0721320919435125</v>
+        <v>0.07240545484332672</v>
       </c>
     </row>
     <row r="20">
@@ -5805,19 +5805,19 @@
         <v>121724</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>101779</v>
+        <v>101303</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>143316</v>
+        <v>143362</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2233678058144868</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1867686310689223</v>
+        <v>0.1858944784076824</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2629910120530284</v>
+        <v>0.2630743986510545</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>97</v>
@@ -5826,19 +5826,19 @@
         <v>107840</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>87500</v>
+        <v>89095</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>126521</v>
+        <v>131454</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1963797694020758</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1593399282152376</v>
+        <v>0.1622450856952441</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2303991219994916</v>
+        <v>0.2393817355271796</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>208</v>
@@ -5847,19 +5847,19 @@
         <v>229564</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>201553</v>
+        <v>203233</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>257573</v>
+        <v>259657</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2098220760637147</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1842201068613953</v>
+        <v>0.1857560248899164</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2354224576815992</v>
+        <v>0.2373277846407005</v>
       </c>
     </row>
     <row r="21">
@@ -5951,19 +5951,19 @@
         <v>345484</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>307382</v>
+        <v>307199</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>381044</v>
+        <v>380761</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1026892494452927</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09136410122289125</v>
+        <v>0.0913098372271806</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1132588831974553</v>
+        <v>0.1131748033175862</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>590</v>
@@ -5972,19 +5972,19 @@
         <v>630107</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>581563</v>
+        <v>588743</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>675411</v>
+        <v>676417</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1788044664767438</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1650291560771688</v>
+        <v>0.1670667516893567</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1916604149041972</v>
+        <v>0.1919459868861486</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>905</v>
@@ -5993,19 +5993,19 @@
         <v>975590</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>917249</v>
+        <v>913578</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1040115</v>
+        <v>1031610</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1416288555815852</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1331592407104937</v>
+        <v>0.132626395881722</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1509960809345903</v>
+        <v>0.1497613640077657</v>
       </c>
     </row>
     <row r="23">
@@ -6022,19 +6022,19 @@
         <v>738076</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>687997</v>
+        <v>691868</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>788480</v>
+        <v>783770</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2193807904083933</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2044957371402117</v>
+        <v>0.2056463404979146</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2343624736830903</v>
+        <v>0.2329626468920271</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>988</v>
@@ -6043,19 +6043,19 @@
         <v>1022476</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>969174</v>
+        <v>965691</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1075532</v>
+        <v>1077659</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2901465232387384</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2750210335385148</v>
+        <v>0.2740326399302702</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3052021184902119</v>
+        <v>0.3058058047805711</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1688</v>
@@ -6064,19 +6064,19 @@
         <v>1760552</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1683995</v>
+        <v>1691965</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1835905</v>
+        <v>1839764</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2555836664143978</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2444696680910212</v>
+        <v>0.2456267534843001</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.26652286327147</v>
+        <v>0.2670830360284676</v>
       </c>
     </row>
     <row r="24">
@@ -6093,19 +6093,19 @@
         <v>755891</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>708220</v>
+        <v>706547</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>808038</v>
+        <v>804874</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2246759896173947</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.210506564728087</v>
+        <v>0.2100093698302509</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2401759095385103</v>
+        <v>0.2392354727867667</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>699</v>
@@ -6114,19 +6114,19 @@
         <v>733329</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>682375</v>
+        <v>686415</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>782746</v>
+        <v>785266</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.208095809528336</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1936365667382341</v>
+        <v>0.1947829265747369</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2221185765868576</v>
+        <v>0.222833905715339</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1426</v>
@@ -6135,19 +6135,19 @@
         <v>1489220</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1421889</v>
+        <v>1423463</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1554887</v>
+        <v>1558514</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2161937740037945</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2064190746932249</v>
+        <v>0.2066475847927388</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2257267537252189</v>
+        <v>0.2262532547674825</v>
       </c>
     </row>
     <row r="25">
@@ -6164,19 +6164,19 @@
         <v>278107</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>246589</v>
+        <v>245383</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>312154</v>
+        <v>312261</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08266268252387311</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.07329454731201435</v>
+        <v>0.07293611567759445</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09278252981177723</v>
+        <v>0.09281448216245887</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>194</v>
@@ -6185,19 +6185,19 @@
         <v>202929</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>174978</v>
+        <v>174318</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>232014</v>
+        <v>232047</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05758486287360902</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04965317198801013</v>
+        <v>0.04946604275100685</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06583839392676025</v>
+        <v>0.06584752542667183</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>458</v>
@@ -6206,19 +6206,19 @@
         <v>481036</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>438217</v>
+        <v>435511</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>525914</v>
+        <v>523141</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06983317933090764</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06361705062207051</v>
+        <v>0.06322426881007968</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07634824422174646</v>
+        <v>0.075945728601407</v>
       </c>
     </row>
     <row r="26">
@@ -6235,19 +6235,19 @@
         <v>1246803</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1190850</v>
+        <v>1188261</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1309327</v>
+        <v>1306756</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3705912880050461</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3539603119594408</v>
+        <v>0.3531906619591766</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3891756373271376</v>
+        <v>0.3884114571273934</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>848</v>
@@ -6256,19 +6256,19 @@
         <v>935158</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>884304</v>
+        <v>883747</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>988739</v>
+        <v>991480</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2653683378825729</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.250937766796584</v>
+        <v>0.2507796623728988</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.280572988766105</v>
+        <v>0.2813509500605386</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2044</v>
@@ -6277,19 +6277,19 @@
         <v>2181960</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2102890</v>
+        <v>2101919</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2259697</v>
+        <v>2269331</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3167605246693149</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3052816719746836</v>
+        <v>0.3051407718508704</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3280457786468907</v>
+        <v>0.3294444058897039</v>
       </c>
     </row>
     <row r="27">
